--- a/Dataset/300_추가설명/corrected_columns_split_data_300_추가.xlsx
+++ b/Dataset/300_추가설명/corrected_columns_split_data_300_추가.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CR_finetuning-main\CR_finetuning\Dataset\300_추가설명\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
     <sheet name="validation" sheetId="2" r:id="rId2"/>
     <sheet name="test" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1806,16 +1811,10 @@
     <t>부바부가 심하지만 현 부서는 자기 의사 표출은 가능함.</t>
   </si>
   <si>
-    <t>업무상 의사결정자 이해관계자 유관부서가 많아 복잡하고 번거로울 수도 있음, LG 브랜드 대비 낙후되거나 열악한 환경에 놀랄수도 있음 (자매사와 비교), 업무 편중</t>
-  </si>
-  <si>
     <t>회사가 경영난이 심해 분위기가 좋지 않다. 퇴사하는 사람들도 자주 있고</t>
   </si>
   <si>
     <t>사람이 좋음. 교육은 많이시켜줌. 진리의 부바부지만 복후비사용, 도서구입, 비품구매등이 비교적 눈치보지않고 가능했던..</t>
-  </si>
-  <si>
-    <t>생각보다 복지가 없다. 그리고 고인물들이 많아 점점 고인물들의 업무가 신입이나 대리급들에게 넘어오고 있는 추세이다. 즉 일안하는사람들이 늘어나는중</t>
   </si>
   <si>
     <t>일과후에도 업무 전화오고 정치해야함 _요즘의 추세에 맞지 않는 고루한 문화 _2인자 문화</t>
@@ -1871,9 +1870,6 @@
     <t>사람들은 나쁘지 않고, 놀고먹자 하려면 무한히 루팡이 가능하다.</t>
   </si>
   <si>
-    <t>망할 일이 없는 회사다. 사업/기업 정신이 좋다. 다니는 사람들이 둥글둥글해서 큰 어려움이 없었다</t>
-  </si>
-  <si>
     <t>본인 의료비 연 1천만원까지 지원, 가족 의료비 지원 있음, 연차 및 유연 근로제 비교적 자유롭게 사용(부바부), 복지포인트 연 100만원</t>
   </si>
   <si>
@@ -1902,12 +1898,6 @@
  다양한 경험 가능</t>
   </si>
   <si>
-    <t>주변 환경이 따로 즐길 거리가 없고 개인 쉬는 시간에 차를 통해서 개인 사생활을 유지해야합니다</t>
-  </si>
-  <si>
-    <t>비전공자의 커리어패스에 대해 한번쯤은 진지하게 고민을 해주었으면 한다._무작정 채용하는것은 모두에게 손해로 보인다.</t>
-  </si>
-  <si>
     <t>- 한국 대기업이 어떤지를 알 수 있음._- 기업이 어떻게 돌아가는지 잘 보임_- 술친구 얻을 수 있음</t>
   </si>
   <si>
@@ -1920,9 +1910,6 @@
     <t>비서도 장기근무할수있는 환경을 만들어줬음 좋겠음 기숙사 한방에 두명만 살게 하고 환경을 더 개선바람 교통이 불편하니 해결바람 여직원들이 더 자유롭게 의견을 낼수 있도록 개선</t>
   </si>
   <si>
-    <t>온갖 글로벌 파트너와 협업할 수 있는 기회가 있음. 타 국내회사에서는 힘들었던 유명 외국 회사와의 미팅도 그냥 쉽게 잡을 수 있을만큼 인지도가 훌륭한 회사. 워라밸도 그렇고 동료들이 훌륭함.</t>
-  </si>
-  <si>
     <t>불필요 보고 다수, 쥐어짜기, 쓸데없는 시스템 도입하여 그 시스템을 일을 더 만들기</t>
   </si>
   <si>
@@ -1930,12 +1917,6 @@
   </si>
   <si>
     <t>스마트하고 전문성을 겸비한 경영진. 좋은 사내 문화. 미래 성장가능성이 높음.</t>
-  </si>
-  <si>
-    <t>1. 많은 일을 하면서 다방면에 능숙해짐
- 2. 왠만한 직군들도 워라밸은 보장
- 3. 착한 임직원들(일부 몇몇 임원 제외)
- 4. 그럭저럭 대기업</t>
   </si>
   <si>
     <t>기업의 장점은 밥이 맛있고 사람들이 친근합니다 _일하기도 편하게 시스템이 있습니다</t>
@@ -2230,16 +2211,47 @@
   <si>
     <t>사람들이 자산인 회사이며 밝고 젊은 분위기로 일할 수 있다</t>
   </si>
+  <si>
+    <t>생각보다 복지가 없다. 그리고 고인물들이 많아 점점 고인물들의 업무가 신입이나 대리급들에게 넘어오고 있는 추세이다. 즉 일안하는사람들이 늘어나는중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무상 의사결정자 이해관계자 유관부서가 많아 복잡하고 번거로울 수도 있음, LG 브랜드 대비 낙후되거나 열악한 환경에 놀랄수도 있음 (자매사와 비교), 업무 편중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>망할 일이 없는 회사다. 사업/기업 정신이 좋다. 다니는 사람들이 둥글둥글해서 큰 어려움이 없었다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 환경이 따로 즐길 거리가 없고 개인 쉬는 시간에 차를 통해서 개인 사생활을 유지해야합니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비전공자의 커리어패스에 대해 한번쯤은 진지하게 고민을 해주었으면 한다._무작정 채용하는것은 모두에게 손해로 보인다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온갖 글로벌 파트너와 협업할 수 있는 기회가 있음. 타 국내회사에서는 힘들었던 유명 외국 회사와의 미팅도 그냥 쉽게 잡을 수 있을만큼 인지도가 훌륭한 회사. 워라밸도 그렇고 동료들이 훌륭함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 많은 일을 하면서 다방면에 능숙해짐
+ 2. 왠만한 직군들도 워라밸은 보장
+ 3. 착한 임직원들(일부 몇몇 임원 제외)
+ 4. 그럭저럭 대기업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2247,8 +2259,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2287,22 +2306,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2344,7 +2374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2376,9 +2406,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2410,6 +2441,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2585,14 +2617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2615,7 +2647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2634,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2648,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2659,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2670,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2678,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2686,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2697,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2711,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2719,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2727,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2738,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2746,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2760,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2774,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2782,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2796,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2804,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2812,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2820,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2831,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2842,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2856,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2864,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2875,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2886,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2897,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2905,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2913,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2924,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2935,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2946,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2954,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2962,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2970,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2978,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2992,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -3003,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -3017,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -3025,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3036,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -3044,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -3052,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -3063,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -3071,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -3079,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -3087,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -3098,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -3106,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -3114,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -3125,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -3133,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -3144,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -3155,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -3166,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -3180,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -3191,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -3199,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -3207,7 +3239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -3215,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -3226,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -3237,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -3251,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -3265,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -3273,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -3287,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -3295,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -3306,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -3314,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -3322,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -3330,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -3341,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -3352,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -3360,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -3374,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -3385,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -3399,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>84</v>
       </c>
@@ -3407,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -3418,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -3429,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -3440,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -3448,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -3459,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -3467,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -3475,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -3486,7 +3518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -3494,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -3502,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -3513,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -3524,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -3532,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -3543,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -3554,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -3562,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -3573,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -3581,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -3589,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -3600,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>105</v>
       </c>
@@ -3614,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -3625,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -3633,7 +3665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -3641,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -3655,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>110</v>
       </c>
@@ -3663,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>111</v>
       </c>
@@ -3677,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -3685,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>113</v>
       </c>
@@ -3693,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -3704,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -3712,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -3720,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -3728,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -3736,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -3744,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -3758,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -3769,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -3783,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -3794,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -3802,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -3810,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>126</v>
       </c>
@@ -3818,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>127</v>
       </c>
@@ -3829,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -3840,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -3848,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -3856,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -3870,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -3881,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -3892,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -3903,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -3914,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -3922,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -3933,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -3944,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>139</v>
       </c>
@@ -3955,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -3966,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -3977,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>142</v>
       </c>
@@ -3988,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>143</v>
       </c>
@@ -4002,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -4016,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -4024,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>146</v>
       </c>
@@ -4032,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -4040,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>148</v>
       </c>
@@ -4051,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -4059,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>150</v>
       </c>
@@ -4067,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>151</v>
       </c>
@@ -4075,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>152</v>
       </c>
@@ -4083,7 +4115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>153</v>
       </c>
@@ -4094,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>154</v>
       </c>
@@ -4105,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -4113,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -4121,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>157</v>
       </c>
@@ -4132,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>158</v>
       </c>
@@ -4140,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>159</v>
       </c>
@@ -4151,7 +4183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>160</v>
       </c>
@@ -4159,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -4167,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -4175,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>163</v>
       </c>
@@ -4189,7 +4221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -4203,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -4211,7 +4243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>166</v>
       </c>
@@ -4222,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>167</v>
       </c>
@@ -4230,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>168</v>
       </c>
@@ -4241,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -4249,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -4260,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -4268,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -4276,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -4284,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -4295,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -4306,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>176</v>
       </c>
@@ -4314,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>177</v>
       </c>
@@ -4322,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -4339,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>179</v>
       </c>
@@ -4350,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>180</v>
       </c>
@@ -4358,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -4366,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -4374,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -4382,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>184</v>
       </c>
@@ -4393,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>185</v>
       </c>
@@ -4401,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>186</v>
       </c>
@@ -4409,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>187</v>
       </c>
@@ -4420,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>188</v>
       </c>
@@ -4428,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -4436,7 +4468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>190</v>
       </c>
@@ -4453,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>191</v>
       </c>
@@ -4461,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>192</v>
       </c>
@@ -4469,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>193</v>
       </c>
@@ -4480,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>194</v>
       </c>
@@ -4488,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -4496,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>196</v>
       </c>
@@ -4504,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>197</v>
       </c>
@@ -4515,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -4529,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>199</v>
       </c>
@@ -4537,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -4545,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>201</v>
       </c>
@@ -4556,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>202</v>
       </c>
@@ -4564,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>203</v>
       </c>
@@ -4575,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -4586,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -4594,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>206</v>
       </c>
@@ -4602,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -4610,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>208</v>
       </c>
@@ -4618,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -4626,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>210</v>
       </c>
@@ -4634,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>211</v>
       </c>
@@ -4645,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>212</v>
       </c>
@@ -4653,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>213</v>
       </c>
@@ -4667,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>214</v>
       </c>
@@ -4675,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>215</v>
       </c>
@@ -4686,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -4700,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>217</v>
       </c>
@@ -4711,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>218</v>
       </c>
@@ -4719,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>219</v>
       </c>
@@ -4730,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -4744,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>221</v>
       </c>
@@ -4755,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>222</v>
       </c>
@@ -4769,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>223</v>
       </c>
@@ -4780,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>224</v>
       </c>
@@ -4791,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>225</v>
       </c>
@@ -4802,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>226</v>
       </c>
@@ -4813,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>227</v>
       </c>
@@ -4821,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>228</v>
       </c>
@@ -4829,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>229</v>
       </c>
@@ -4837,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>230</v>
       </c>
@@ -4848,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>231</v>
       </c>
@@ -4859,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>232</v>
       </c>
@@ -4870,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>233</v>
       </c>
@@ -4878,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>234</v>
       </c>
@@ -4886,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>235</v>
       </c>
@@ -4897,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>236</v>
       </c>
@@ -4905,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>237</v>
       </c>
@@ -4916,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>238</v>
       </c>
@@ -4927,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -4941,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -4955,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>241</v>
       </c>
@@ -4963,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>242</v>
       </c>
@@ -4971,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>243</v>
       </c>
@@ -4979,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>244</v>
       </c>
@@ -4993,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>245</v>
       </c>
@@ -5004,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>246</v>
       </c>
@@ -5015,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>247</v>
       </c>
@@ -5029,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>248</v>
       </c>
@@ -5040,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>249</v>
       </c>
@@ -5048,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>250</v>
       </c>
@@ -5059,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>251</v>
       </c>
@@ -5070,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>252</v>
       </c>
@@ -5078,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>253</v>
       </c>
@@ -5089,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>254</v>
       </c>
@@ -5100,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>255</v>
       </c>
@@ -5111,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>256</v>
       </c>
@@ -5122,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>257</v>
       </c>
@@ -5130,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>258</v>
       </c>
@@ -5141,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>259</v>
       </c>
@@ -5158,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>260</v>
       </c>
@@ -5169,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>261</v>
       </c>
@@ -5180,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>262</v>
       </c>
@@ -5188,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>263</v>
       </c>
@@ -5202,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>264</v>
       </c>
@@ -5213,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>265</v>
       </c>
@@ -5224,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>266</v>
       </c>
@@ -5232,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>267</v>
       </c>
@@ -5243,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>268</v>
       </c>
@@ -5260,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>269</v>
       </c>
@@ -5271,7 +5303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>270</v>
       </c>
@@ -5279,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>271</v>
       </c>
@@ -5287,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>272</v>
       </c>
@@ -5301,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>273</v>
       </c>
@@ -5309,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>274</v>
       </c>
@@ -5317,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>275</v>
       </c>
@@ -5325,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>276</v>
       </c>
@@ -5333,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>277</v>
       </c>
@@ -5347,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>278</v>
       </c>
@@ -5355,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>279</v>
       </c>
@@ -5363,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>280</v>
       </c>
@@ -5371,7 +5403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>281</v>
       </c>
@@ -5385,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>282</v>
       </c>
@@ -5393,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>283</v>
       </c>
@@ -5401,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>284</v>
       </c>
@@ -5412,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>285</v>
       </c>
@@ -5420,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>286</v>
       </c>
@@ -5431,7 +5463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>287</v>
       </c>
@@ -5439,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>288</v>
       </c>
@@ -5447,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>289</v>
       </c>
@@ -5458,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>290</v>
       </c>
@@ -5466,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>291</v>
       </c>
@@ -5474,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>292</v>
       </c>
@@ -5485,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>293</v>
       </c>
@@ -5493,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>294</v>
       </c>
@@ -5507,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>295</v>
       </c>
@@ -5515,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>296</v>
       </c>
@@ -5529,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>297</v>
       </c>
@@ -5540,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>298</v>
       </c>
@@ -5551,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>299</v>
       </c>
@@ -5565,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>300</v>
       </c>
@@ -5573,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>301</v>
       </c>
@@ -5581,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>302</v>
       </c>
@@ -5592,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>303</v>
       </c>
@@ -5600,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>304</v>
       </c>
@@ -5611,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>305</v>
       </c>
@@ -5622,7 +5654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>306</v>
       </c>
@@ -5631,19 +5663,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5666,7 +5700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -5677,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -5685,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>308</v>
       </c>
@@ -5699,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>309</v>
       </c>
@@ -5710,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>310</v>
       </c>
@@ -5718,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>311</v>
       </c>
@@ -5729,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>312</v>
       </c>
@@ -5737,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>313</v>
       </c>
@@ -5748,7 +5782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>314</v>
       </c>
@@ -5759,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>315</v>
       </c>
@@ -5770,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>316</v>
       </c>
@@ -5781,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>317</v>
       </c>
@@ -5795,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>318</v>
       </c>
@@ -5803,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>319</v>
       </c>
@@ -5817,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>320</v>
       </c>
@@ -5825,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>321</v>
       </c>
@@ -5833,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>322</v>
       </c>
@@ -5844,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>323</v>
       </c>
@@ -5855,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>324</v>
       </c>
@@ -5866,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>325</v>
       </c>
@@ -5877,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>326</v>
       </c>
@@ -5888,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -5899,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>328</v>
       </c>
@@ -5907,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>329</v>
       </c>
@@ -5915,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>330</v>
       </c>
@@ -5926,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>331</v>
       </c>
@@ -5934,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>332</v>
       </c>
@@ -5942,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>333</v>
       </c>
@@ -5950,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -5958,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>335</v>
       </c>
@@ -5969,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>336</v>
       </c>
@@ -5980,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>337</v>
       </c>
@@ -5988,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>338</v>
       </c>
@@ -5996,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>339</v>
       </c>
@@ -6007,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>340</v>
       </c>
@@ -6015,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>341</v>
       </c>
@@ -6026,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>342</v>
       </c>
@@ -6037,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>343</v>
       </c>
@@ -6051,7 +6085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>344</v>
       </c>
@@ -6059,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>345</v>
       </c>
@@ -6070,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>346</v>
       </c>
@@ -6078,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>347</v>
       </c>
@@ -6086,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>348</v>
       </c>
@@ -6094,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>349</v>
       </c>
@@ -6102,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>350</v>
       </c>
@@ -6113,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>351</v>
       </c>
@@ -6121,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>352</v>
       </c>
@@ -6132,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>353</v>
       </c>
@@ -6140,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>354</v>
       </c>
@@ -6151,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>355</v>
       </c>
@@ -6162,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>356</v>
       </c>
@@ -6176,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>357</v>
       </c>
@@ -6184,7 +6218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>272</v>
       </c>
@@ -6198,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>358</v>
       </c>
@@ -6209,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>359</v>
       </c>
@@ -6220,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>360</v>
       </c>
@@ -6228,7 +6262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>361</v>
       </c>
@@ -6239,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>362</v>
       </c>
@@ -6250,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>363</v>
       </c>
@@ -6258,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>364</v>
       </c>
@@ -6272,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>365</v>
       </c>
@@ -6286,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>366</v>
       </c>
@@ -6294,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>367</v>
       </c>
@@ -6302,7 +6336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>368</v>
       </c>
@@ -6310,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>369</v>
       </c>
@@ -6321,7 +6355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>370</v>
       </c>
@@ -6332,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>371</v>
       </c>
@@ -6343,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>372</v>
       </c>
@@ -6351,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>373</v>
       </c>
@@ -6365,7 +6399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>374</v>
       </c>
@@ -6376,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>375</v>
       </c>
@@ -6387,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>376</v>
       </c>
@@ -6398,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>377</v>
       </c>
@@ -6409,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>378</v>
       </c>
@@ -6417,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>379</v>
       </c>
@@ -6425,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>380</v>
       </c>
@@ -6433,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>381</v>
       </c>
@@ -6444,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>382</v>
       </c>
@@ -6452,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>383</v>
       </c>
@@ -6460,7 +6494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>384</v>
       </c>
@@ -6471,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>385</v>
       </c>
@@ -6479,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>386</v>
       </c>
@@ -6487,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>387</v>
       </c>
@@ -6495,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>388</v>
       </c>
@@ -6503,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>389</v>
       </c>
@@ -6511,7 +6545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>390</v>
       </c>
@@ -6528,7 +6562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>391</v>
       </c>
@@ -6536,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>392</v>
       </c>
@@ -6547,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>393</v>
       </c>
@@ -6555,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>394</v>
       </c>
@@ -6566,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>395</v>
       </c>
@@ -6577,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>396</v>
       </c>
@@ -6588,7 +6622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>397</v>
       </c>
@@ -6596,7 +6630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>398</v>
       </c>
@@ -6607,7 +6641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>399</v>
       </c>
@@ -6615,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>400</v>
       </c>
@@ -6626,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>401</v>
       </c>
@@ -6640,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>402</v>
       </c>
@@ -6651,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>403</v>
       </c>
@@ -6659,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>404</v>
       </c>
@@ -6671,19 +6705,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G261"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="67.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6706,7 +6746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>405</v>
       </c>
@@ -6714,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>406</v>
       </c>
@@ -6722,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>407</v>
       </c>
@@ -6730,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>408</v>
       </c>
@@ -6738,7 +6778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>409</v>
       </c>
@@ -6749,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>410</v>
       </c>
@@ -6757,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>411</v>
       </c>
@@ -6765,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>412</v>
       </c>
@@ -6776,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>413</v>
       </c>
@@ -6787,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>414</v>
       </c>
@@ -6795,7 +6835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>415</v>
       </c>
@@ -6809,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>416</v>
       </c>
@@ -6817,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>417</v>
       </c>
@@ -6825,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>418</v>
       </c>
@@ -6842,7 +6882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>419</v>
       </c>
@@ -6856,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>420</v>
       </c>
@@ -6867,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>421</v>
       </c>
@@ -6878,7 +6918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>422</v>
       </c>
@@ -6895,7 +6935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>423</v>
       </c>
@@ -6906,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>424</v>
       </c>
@@ -6914,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>425</v>
       </c>
@@ -6922,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>426</v>
       </c>
@@ -6930,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>427</v>
       </c>
@@ -6941,7 +6981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>428</v>
       </c>
@@ -6952,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>429</v>
       </c>
@@ -6963,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>430</v>
       </c>
@@ -6974,7 +7014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>431</v>
       </c>
@@ -6982,7 +7022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>432</v>
       </c>
@@ -6990,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>433</v>
       </c>
@@ -6998,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>434</v>
       </c>
@@ -7006,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>435</v>
       </c>
@@ -7014,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>436</v>
       </c>
@@ -7025,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>437</v>
       </c>
@@ -7036,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>438</v>
       </c>
@@ -7044,7 +7084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>439</v>
       </c>
@@ -7052,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>440</v>
       </c>
@@ -7060,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>441</v>
       </c>
@@ -7071,7 +7111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>442</v>
       </c>
@@ -7079,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>443</v>
       </c>
@@ -7087,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>444</v>
       </c>
@@ -7098,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>445</v>
       </c>
@@ -7106,7 +7146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>446</v>
       </c>
@@ -7114,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>447</v>
       </c>
@@ -7125,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>448</v>
       </c>
@@ -7136,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>449</v>
       </c>
@@ -7144,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>450</v>
       </c>
@@ -7155,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>451</v>
       </c>
@@ -7163,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>452</v>
       </c>
@@ -7174,7 +7214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>453</v>
       </c>
@@ -7182,7 +7222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>454</v>
       </c>
@@ -7190,7 +7230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>455</v>
       </c>
@@ -7207,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>456</v>
       </c>
@@ -7221,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>457</v>
       </c>
@@ -7229,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>458</v>
       </c>
@@ -7237,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>459</v>
       </c>
@@ -7251,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>460</v>
       </c>
@@ -7265,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>461</v>
       </c>
@@ -7273,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>462</v>
       </c>
@@ -7284,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>463</v>
       </c>
@@ -7292,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>464</v>
       </c>
@@ -7303,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>465</v>
       </c>
@@ -7311,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>466</v>
       </c>
@@ -7319,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>467</v>
       </c>
@@ -7327,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>468</v>
       </c>
@@ -7341,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>469</v>
       </c>
@@ -7352,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>470</v>
       </c>
@@ -7366,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>471</v>
       </c>
@@ -7377,7 +7417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>472</v>
       </c>
@@ -7388,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>473</v>
       </c>
@@ -7396,7 +7436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>474</v>
       </c>
@@ -7404,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>475</v>
       </c>
@@ -7412,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>476</v>
       </c>
@@ -7420,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>477</v>
       </c>
@@ -7428,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>415</v>
       </c>
@@ -7442,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>478</v>
       </c>
@@ -7453,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>479</v>
       </c>
@@ -7461,7 +7501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>480</v>
       </c>
@@ -7469,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>481</v>
       </c>
@@ -7477,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>482</v>
       </c>
@@ -7488,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>483</v>
       </c>
@@ -7499,7 +7539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>484</v>
       </c>
@@ -7513,7 +7553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>485</v>
       </c>
@@ -7521,7 +7561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>486</v>
       </c>
@@ -7529,7 +7569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>487</v>
       </c>
@@ -7543,7 +7583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>488</v>
       </c>
@@ -7554,7 +7594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>489</v>
       </c>
@@ -7562,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>490</v>
       </c>
@@ -7570,7 +7610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>491</v>
       </c>
@@ -7584,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>492</v>
       </c>
@@ -7595,7 +7635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>493</v>
       </c>
@@ -7603,7 +7643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>494</v>
       </c>
@@ -7611,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>495</v>
       </c>
@@ -7619,7 +7659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>496</v>
       </c>
@@ -7627,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>497</v>
       </c>
@@ -7635,7 +7675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>498</v>
       </c>
@@ -7646,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>499</v>
       </c>
@@ -7654,7 +7694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -7665,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>501</v>
       </c>
@@ -7676,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>502</v>
       </c>
@@ -7687,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>503</v>
       </c>
@@ -7698,7 +7738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>504</v>
       </c>
@@ -7709,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>505</v>
       </c>
@@ -7717,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>506</v>
       </c>
@@ -7728,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>507</v>
       </c>
@@ -7739,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>508</v>
       </c>
@@ -7747,7 +7787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>509</v>
       </c>
@@ -7755,7 +7795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>510</v>
       </c>
@@ -7766,7 +7806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>511</v>
       </c>
@@ -7774,7 +7814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>512</v>
       </c>
@@ -7785,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>513</v>
       </c>
@@ -7796,7 +7836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>514</v>
       </c>
@@ -7807,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>515</v>
       </c>
@@ -7818,7 +7858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>516</v>
       </c>
@@ -7826,7 +7866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>517</v>
       </c>
@@ -7837,7 +7877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>518</v>
       </c>
@@ -7845,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>519</v>
       </c>
@@ -7856,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>520</v>
       </c>
@@ -7867,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>521</v>
       </c>
@@ -7875,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>522</v>
       </c>
@@ -7883,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>523</v>
       </c>
@@ -7891,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>524</v>
       </c>
@@ -7905,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>525</v>
       </c>
@@ -7916,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>526</v>
       </c>
@@ -7930,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>527</v>
       </c>
@@ -7941,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>528</v>
       </c>
@@ -7949,7 +7989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>529</v>
       </c>
@@ -7957,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>530</v>
       </c>
@@ -7968,7 +8008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>531</v>
       </c>
@@ -7976,1336 +8016,1338 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
+        <v>658</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
         <v>532</v>
       </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" t="s">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
         <v>533</v>
       </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" t="s">
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>657</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
         <v>534</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" t="s">
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
         <v>535</v>
       </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" t="s">
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
         <v>536</v>
       </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" t="s">
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
         <v>537</v>
       </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" t="s">
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
         <v>538</v>
       </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" t="s">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
         <v>539</v>
       </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" t="s">
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
         <v>540</v>
       </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" t="s">
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
         <v>541</v>
       </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" t="s">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
         <v>542</v>
       </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" t="s">
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
         <v>543</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" t="s">
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
         <v>544</v>
       </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" t="s">
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
         <v>545</v>
       </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" t="s">
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
         <v>546</v>
       </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" t="s">
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
         <v>547</v>
       </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" t="s">
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
         <v>548</v>
       </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" t="s">
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
         <v>549</v>
       </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" t="s">
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
         <v>550</v>
       </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" t="s">
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>659</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
         <v>551</v>
       </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" t="s">
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
         <v>552</v>
       </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" t="s">
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
         <v>553</v>
       </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" t="s">
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
         <v>554</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" t="s">
+      <c r="G155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
         <v>555</v>
       </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" t="s">
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
         <v>556</v>
       </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" t="s">
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
         <v>557</v>
       </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" t="s">
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
         <v>558</v>
       </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" t="s">
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
         <v>559</v>
       </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" t="s">
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>660</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>661</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
         <v>560</v>
       </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" t="s">
+      <c r="G163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
         <v>561</v>
       </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" t="s">
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
         <v>562</v>
       </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" t="s">
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
         <v>563</v>
       </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" t="s">
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>662</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
         <v>564</v>
       </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" t="s">
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
         <v>565</v>
       </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" t="s">
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
         <v>566</v>
       </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" t="s">
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+      <c r="A171" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
         <v>567</v>
       </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" t="s">
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
         <v>568</v>
       </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" t="s">
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
         <v>569</v>
       </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" t="s">
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
         <v>570</v>
       </c>
-      <c r="E168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" t="s">
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
         <v>571</v>
       </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" t="s">
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
         <v>572</v>
       </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" t="s">
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
         <v>573</v>
       </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="D171">
-        <v>1</v>
-      </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" t="s">
+      <c r="E178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
         <v>574</v>
       </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-      <c r="D172">
-        <v>1</v>
-      </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" t="s">
+      <c r="G179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
         <v>575</v>
       </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" t="s">
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
         <v>576</v>
       </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" t="s">
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
         <v>577</v>
       </c>
-      <c r="D175">
-        <v>1</v>
-      </c>
-      <c r="E175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" t="s">
+      <c r="E182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
         <v>578</v>
       </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-      <c r="D176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" t="s">
+      <c r="G183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
         <v>579</v>
       </c>
-      <c r="D177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" t="s">
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
         <v>580</v>
       </c>
-      <c r="E178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" t="s">
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
         <v>581</v>
       </c>
-      <c r="G179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" t="s">
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
         <v>582</v>
       </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" t="s">
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
         <v>583</v>
       </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-      <c r="E181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" t="s">
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
         <v>584</v>
       </c>
-      <c r="E182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" t="s">
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
         <v>585</v>
       </c>
-      <c r="G183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" t="s">
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
         <v>586</v>
       </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" t="s">
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
         <v>587</v>
       </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" t="s">
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
         <v>588</v>
       </c>
-      <c r="D186">
-        <v>1</v>
-      </c>
-      <c r="E186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" t="s">
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
         <v>589</v>
       </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="F187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" t="s">
+      <c r="G194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
         <v>590</v>
       </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" t="s">
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
         <v>591</v>
       </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" t="s">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
         <v>592</v>
       </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" t="s">
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
         <v>593</v>
       </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-      <c r="D191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" t="s">
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
         <v>594</v>
       </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="E192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" t="s">
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
         <v>595</v>
       </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" t="s">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
         <v>596</v>
       </c>
-      <c r="G194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" t="s">
+      <c r="G201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
         <v>597</v>
       </c>
-      <c r="F195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" t="s">
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
         <v>598</v>
       </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" t="s">
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
         <v>599</v>
       </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="E197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" t="s">
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
         <v>600</v>
       </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-      <c r="E198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" t="s">
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
         <v>601</v>
       </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" t="s">
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
         <v>602</v>
       </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" t="s">
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
         <v>603</v>
       </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" t="s">
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
         <v>604</v>
       </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-      <c r="C202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" t="s">
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
         <v>605</v>
       </c>
-      <c r="F203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" t="s">
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
         <v>606</v>
       </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-      <c r="E204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" t="s">
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
         <v>607</v>
       </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-      <c r="D205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" t="s">
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
         <v>608</v>
       </c>
-      <c r="D206">
-        <v>1</v>
-      </c>
-      <c r="E206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" t="s">
+      <c r="E213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
         <v>609</v>
       </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-      <c r="E207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" t="s">
+      <c r="E214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
         <v>610</v>
       </c>
-      <c r="F208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" t="s">
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
         <v>611</v>
       </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" t="s">
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
         <v>612</v>
       </c>
-      <c r="E210">
-        <v>1</v>
-      </c>
-      <c r="F210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" t="s">
+      <c r="E217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
         <v>613</v>
       </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-      <c r="D211">
-        <v>1</v>
-      </c>
-      <c r="E211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" t="s">
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
         <v>614</v>
       </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-      <c r="D212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" t="s">
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
         <v>615</v>
       </c>
-      <c r="E213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" t="s">
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
         <v>616</v>
       </c>
-      <c r="E214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" t="s">
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
         <v>617</v>
       </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="D215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" t="s">
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
         <v>618</v>
       </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" t="s">
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
         <v>619</v>
       </c>
-      <c r="E217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" t="s">
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
         <v>620</v>
       </c>
-      <c r="D218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" t="s">
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
         <v>621</v>
       </c>
-      <c r="D219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" t="s">
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
         <v>622</v>
       </c>
-      <c r="E220">
-        <v>1</v>
-      </c>
-      <c r="F220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" t="s">
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
         <v>623</v>
       </c>
-      <c r="E221">
-        <v>1</v>
-      </c>
-      <c r="F221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" t="s">
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
         <v>624</v>
       </c>
-      <c r="D222">
-        <v>1</v>
-      </c>
-      <c r="E222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" t="s">
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
         <v>625</v>
       </c>
-      <c r="D223">
-        <v>1</v>
-      </c>
-      <c r="E223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" t="s">
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
         <v>626</v>
       </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="E224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" t="s">
+      <c r="G231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
         <v>627</v>
       </c>
-      <c r="D225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" t="s">
+      <c r="F232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
         <v>628</v>
       </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-      <c r="E226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" t="s">
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
         <v>629</v>
       </c>
-      <c r="D227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" t="s">
+      <c r="E234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
         <v>630</v>
       </c>
-      <c r="D228">
-        <v>1</v>
-      </c>
-      <c r="E228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" t="s">
+      <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
         <v>631</v>
       </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-      <c r="E229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" t="s">
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
         <v>632</v>
       </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-      <c r="D230">
-        <v>1</v>
-      </c>
-      <c r="E230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" t="s">
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
         <v>633</v>
       </c>
-      <c r="G231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" t="s">
+      <c r="E238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
         <v>634</v>
       </c>
-      <c r="F232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" t="s">
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
         <v>635</v>
       </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-      <c r="E233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" t="s">
+      <c r="E240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
         <v>636</v>
       </c>
-      <c r="E234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" t="s">
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
         <v>637</v>
       </c>
-      <c r="D235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" t="s">
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
         <v>638</v>
       </c>
-      <c r="C236">
-        <v>1</v>
-      </c>
-      <c r="D236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
         <v>639</v>
       </c>
-      <c r="C237">
-        <v>1</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" t="s">
+      <c r="E244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
         <v>640</v>
       </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" t="s">
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
         <v>641</v>
       </c>
-      <c r="D239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" t="s">
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
         <v>642</v>
       </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" t="s">
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
         <v>643</v>
       </c>
-      <c r="B241">
-        <v>1</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242" t="s">
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
         <v>644</v>
       </c>
-      <c r="B242">
-        <v>1</v>
-      </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243" t="s">
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
         <v>645</v>
       </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" t="s">
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
         <v>646</v>
       </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" t="s">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
         <v>647</v>
       </c>
-      <c r="E245">
-        <v>1</v>
-      </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" t="s">
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
         <v>648</v>
       </c>
-      <c r="B246">
-        <v>1</v>
-      </c>
-      <c r="E246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" t="s">
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
         <v>649</v>
       </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" t="s">
+      <c r="F254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
         <v>650</v>
       </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249" t="s">
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
         <v>651</v>
       </c>
-      <c r="D249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250" t="s">
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
         <v>652</v>
       </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" t="s">
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
         <v>653</v>
       </c>
-      <c r="B251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252" t="s">
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
         <v>654</v>
       </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253" t="s">
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
         <v>655</v>
       </c>
-      <c r="B253">
-        <v>1</v>
-      </c>
-      <c r="D253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254" t="s">
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
         <v>656</v>
       </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255" t="s">
-        <v>657</v>
-      </c>
-      <c r="C255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" t="s">
-        <v>658</v>
-      </c>
-      <c r="B256">
-        <v>1</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" t="s">
-        <v>659</v>
-      </c>
-      <c r="B257">
-        <v>1</v>
-      </c>
-      <c r="E257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" t="s">
-        <v>660</v>
-      </c>
-      <c r="B258">
-        <v>1</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" t="s">
-        <v>661</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-      <c r="D259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" t="s">
-        <v>662</v>
-      </c>
-      <c r="D260">
-        <v>1</v>
-      </c>
-      <c r="E260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" t="s">
-        <v>663</v>
-      </c>
       <c r="E261">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>